--- a/imagenes_guardadas/plantilla.xlsx
+++ b/imagenes_guardadas/plantilla.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\acrivera-sis\imagenes_guardadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4897547A-44EE-4D56-B90B-9425EA405D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795DE5C6-B450-4A10-9827-C4AD0722F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A4F58DA-A499-4342-B7EA-C20A63C4C227}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ángel Roberto Coronado" sheetId="1" r:id="rId1"/>
+    <sheet name="plantilla" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ángel Roberto Coronado'!$B$1:$M$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">plantilla!$B$1:$M$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Automóviles y Camiones Rivera, S.A. de C.V.</t>
   </si>
@@ -53,15 +53,9 @@
     <t>No. de reporte:</t>
   </si>
   <si>
-    <t>PM15012025</t>
-  </si>
-  <si>
     <t>Programado</t>
   </si>
   <si>
-    <t>✓</t>
-  </si>
-  <si>
     <t>Solicitado</t>
   </si>
   <si>
@@ -77,28 +71,16 @@
     <t>Puesto:</t>
   </si>
   <si>
-    <t>Administrador de Egresos</t>
-  </si>
-  <si>
     <t>No. de serie:</t>
   </si>
   <si>
-    <t>3719351401462</t>
-  </si>
-  <si>
     <t>Capacidad de disco:</t>
   </si>
   <si>
-    <t>500GB NVMe</t>
-  </si>
-  <si>
     <t>No. de inventario:</t>
   </si>
   <si>
     <t>Capacidad de memoria:</t>
-  </si>
-  <si>
-    <t>8GB</t>
   </si>
   <si>
     <t>Espacio disponible:</t>
@@ -247,7 +229,7 @@
       <name val="CorpoS"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,12 +239,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -506,39 +482,63 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,36 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1DAF3D-1E27-44D7-AC3D-F26EE6EF97FD}">
   <dimension ref="A2:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:C76"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1042,23 +1012,21 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="46"/>
-      <c r="H7" s="53" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="44"/>
+      <c r="H7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="64"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="1:13" ht="7.5" customHeight="1">
       <c r="B8" s="11"/>
@@ -1066,18 +1034,18 @@
     </row>
     <row r="9" spans="1:13" ht="13.5">
       <c r="A9" s="9"/>
-      <c r="B9" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="47"/>
+      <c r="B9" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="45"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="47"/>
+      <c r="H9" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="13"/>
       <c r="L9" s="9"/>
       <c r="M9" s="14"/>
@@ -1099,22 +1067,22 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="9"/>
-      <c r="B11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="53"/>
+      <c r="B11" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="54"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
+      <c r="E11" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="1:13" ht="7.5" customHeight="1" thickBot="1">
       <c r="A12" s="9"/>
@@ -1162,20 +1130,20 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="9"/>
-      <c r="B15" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="60"/>
+      <c r="B15" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="49"/>
       <c r="D15" s="21"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:13" ht="7.5" customHeight="1">
       <c r="B16" s="11"/>
@@ -1183,24 +1151,20 @@
     </row>
     <row r="17" spans="1:13">
       <c r="B17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="H17" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="68"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="H17" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57"/>
     </row>
     <row r="18" spans="1:13" ht="7.5" customHeight="1">
       <c r="B18" s="11"/>
@@ -1208,23 +1172,21 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="9"/>
-      <c r="B19" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="H19" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
+      <c r="B19" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="H19" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" ht="7.5" customHeight="1">
       <c r="B20" s="11"/>
@@ -1232,23 +1194,21 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="9"/>
-      <c r="B21" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="B21" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
       <c r="H21" s="21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I21" s="21"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" ht="7.5" customHeight="1">
       <c r="B22" s="11"/>
@@ -1256,22 +1216,22 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="9"/>
-      <c r="B23" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="53"/>
+      <c r="B23" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="54"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
+      <c r="E23" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="52"/>
     </row>
     <row r="24" spans="1:13" ht="7.5" customHeight="1" thickBot="1">
       <c r="A24" s="9"/>
@@ -1311,21 +1271,21 @@
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="B27" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="H27" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
+      <c r="B27" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="H27" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="60"/>
     </row>
     <row r="28" spans="1:13" ht="7.5" customHeight="1">
       <c r="A28" s="9"/>
@@ -1337,24 +1297,22 @@
     </row>
     <row r="29" spans="1:13" ht="13.5">
       <c r="A29" s="9"/>
-      <c r="B29" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="53"/>
+      <c r="B29" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="54"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="44"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
+      <c r="G29" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="9"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="62"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30" spans="1:13" ht="7.5" customHeight="1">
       <c r="B30" s="28"/>
@@ -1365,28 +1323,26 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="63"/>
+      <c r="M30" s="62"/>
     </row>
     <row r="31" spans="1:13" ht="13.5">
       <c r="A31" s="9"/>
-      <c r="B31" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="53"/>
+      <c r="B31" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="54"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="44"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
+      <c r="G31" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="9"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="63"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="62"/>
     </row>
     <row r="32" spans="1:13" ht="7.5" customHeight="1">
       <c r="B32" s="8"/>
@@ -1401,20 +1357,18 @@
     </row>
     <row r="33" spans="1:13" ht="13.5">
       <c r="A33" s="9"/>
-      <c r="B33" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="53"/>
+      <c r="B33" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="54"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="44" t="s">
-        <v>6</v>
-      </c>
+      <c r="E33" s="46"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
+      <c r="G33" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="9"/>
       <c r="K33" s="29"/>
       <c r="L33" s="9"/>
@@ -1433,17 +1387,17 @@
     </row>
     <row r="35" spans="1:13" ht="13.5">
       <c r="A35" s="9"/>
-      <c r="B35" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="53"/>
+      <c r="B35" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="54"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="13"/>
-      <c r="G35" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
+      <c r="E35" s="46"/>
+      <c r="G35" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="9"/>
       <c r="K35" s="29"/>
       <c r="L35" s="9"/>
@@ -1462,18 +1416,18 @@
     </row>
     <row r="37" spans="1:13" ht="13.5">
       <c r="A37" s="9"/>
-      <c r="B37" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="53"/>
+      <c r="B37" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="54"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
+      <c r="G37" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="9"/>
       <c r="K37" s="29"/>
       <c r="L37" s="18"/>
@@ -1525,27 +1479,25 @@
     </row>
     <row r="41" spans="1:13">
       <c r="B41" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13">
       <c r="B42" s="11"/>
       <c r="F42" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M42" s="14"/>
     </row>
     <row r="43" spans="1:13" ht="13.5">
       <c r="B43" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>6</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F43" s="47"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
@@ -1559,11 +1511,9 @@
     </row>
     <row r="45" spans="1:13" ht="13.5">
       <c r="B45" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="45" t="s">
-        <v>6</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F45" s="47"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
       <c r="J45" s="33"/>
@@ -1577,11 +1527,9 @@
     </row>
     <row r="47" spans="1:13" ht="13.5">
       <c r="B47" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>6</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F47" s="47"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="33"/>
@@ -1595,11 +1543,9 @@
     </row>
     <row r="49" spans="2:13" ht="13.5">
       <c r="B49" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>6</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F49" s="47"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
       <c r="J49" s="33"/>
@@ -1613,11 +1559,9 @@
     </row>
     <row r="51" spans="2:13" ht="13.5">
       <c r="B51" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>6</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F51" s="47"/>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
       <c r="J51" s="33"/>
@@ -1665,7 +1609,7 @@
     </row>
     <row r="55" spans="2:13">
       <c r="B55" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F55" s="18"/>
       <c r="H55" s="18"/>
@@ -1674,20 +1618,18 @@
     <row r="56" spans="2:13" ht="12" customHeight="1">
       <c r="B56" s="11"/>
       <c r="F56" s="18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M56" s="14"/>
     </row>
     <row r="57" spans="2:13" ht="13.5">
       <c r="B57" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="45" t="s">
-        <v>6</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F57" s="47"/>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33"/>
@@ -1702,11 +1644,9 @@
     </row>
     <row r="59" spans="2:13" ht="13.5">
       <c r="B59" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>6</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F59" s="47"/>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
       <c r="J59" s="33"/>
@@ -1721,9 +1661,9 @@
     </row>
     <row r="61" spans="2:13" ht="13.5">
       <c r="B61" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="F61" s="47"/>
       <c r="H61" s="33"/>
       <c r="I61" s="33"/>
       <c r="J61" s="33"/>
@@ -1738,9 +1678,9 @@
     </row>
     <row r="63" spans="2:13" ht="13.5">
       <c r="B63" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="32"/>
+        <v>41</v>
+      </c>
+      <c r="F63" s="47"/>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
       <c r="J63" s="33"/>
@@ -1755,11 +1695,9 @@
     </row>
     <row r="65" spans="1:13" ht="13.5">
       <c r="B65" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65" s="45" t="s">
-        <v>6</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F65" s="47"/>
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
@@ -1774,11 +1712,9 @@
     </row>
     <row r="67" spans="1:13" ht="13.5">
       <c r="B67" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>6</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F67" s="47"/>
       <c r="H67" s="33"/>
       <c r="I67" s="33"/>
       <c r="J67" s="33"/>
@@ -1792,7 +1728,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="B69" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F69" s="33"/>
       <c r="H69" s="33"/>
@@ -1833,27 +1769,27 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="18"/>
-      <c r="B73" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="48"/>
+      <c r="B73" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="59"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
-      <c r="F73" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="L73" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="M73" s="49"/>
+      <c r="F73" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="L73" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M73" s="60"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="18"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="58"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -1870,20 +1806,20 @@
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1">
       <c r="A76" s="18"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="56"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
-      <c r="F76" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="L76" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="M76" s="51"/>
+      <c r="F76" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="L76" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="M76" s="52"/>
     </row>
     <row r="77" spans="1:13" ht="8.25" customHeight="1" thickBot="1">
       <c r="B77" s="34"/>
@@ -1905,6 +1841,31 @@
     <row r="79" spans="1:13" ht="15.75" hidden="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G31:I31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:I19"/>
@@ -1921,31 +1882,6 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0.19685039370078741"/>
